--- a/fusion-domain.xlsx
+++ b/fusion-domain.xlsx
@@ -432,10 +432,10 @@
         <v>大转盘（乐高）</v>
       </c>
       <c r="B2" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fbigwheel%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/bigwheel?activityId={activityId}&amp;authMode=2</v>
       </c>
       <c r="C2" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fbigwheel%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/bigwheel?activityId={activityId}&amp;authMode=2</v>
       </c>
     </row>
     <row r="3">
@@ -443,10 +443,10 @@
         <v>刮刮卡（乐高）</v>
       </c>
       <c r="B3" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fscratch%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/scratch?activityId={activityId}&amp;authMode=2</v>
       </c>
       <c r="C3" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fscratch%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/scratch?activityId={activityId}&amp;authMode=2</v>
       </c>
     </row>
     <row r="4">
@@ -454,10 +454,10 @@
         <v>砸金蛋（乐高）</v>
       </c>
       <c r="B4" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fegg%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/egg?activityId={activityId}&amp;authMode=2</v>
       </c>
       <c r="C4" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fegg%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/egg?activityId={activityId}&amp;authMode=2</v>
       </c>
     </row>
     <row r="5">
@@ -465,10 +465,10 @@
         <v>摇一摇（乐高）</v>
       </c>
       <c r="B5" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fshake%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/shake?activityId={activityId}&amp;authMode=2</v>
       </c>
       <c r="C5" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fshake%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/shake?activityId={activityId}&amp;authMode=2</v>
       </c>
     </row>
     <row r="6">
@@ -476,10 +476,10 @@
         <v>消消乐（乐高）</v>
       </c>
       <c r="B6" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Felimination%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/elimination?activityId={activityId}&amp;authMode=2</v>
       </c>
       <c r="C6" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Felimination%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/elimination?activityId={activityId}&amp;authMode=2</v>
       </c>
     </row>
     <row r="7">
@@ -487,10 +487,10 @@
         <v>摇摇乐（乐高）</v>
       </c>
       <c r="B7" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fshakedice%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/shakedice?activityId={activityId}&amp;authMode=2</v>
       </c>
       <c r="C7" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fshakedice%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/shakedice?activityId={activityId}&amp;authMode=2</v>
       </c>
     </row>
     <row r="8">
@@ -498,10 +498,10 @@
         <v>签到摇奖机（乐高）</v>
       </c>
       <c r="B8" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Farmbandit%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/armbandit?activityId={activityId}&amp;authMode=2</v>
       </c>
       <c r="C8" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Farmbandit%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/armbandit?activityId={activityId}&amp;authMode=2</v>
       </c>
     </row>
     <row r="9">
@@ -509,10 +509,10 @@
         <v>扭蛋机（乐高）</v>
       </c>
       <c r="B9" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2FtwistEgg%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/twistEgg?activityId={activityId}&amp;authMode=2</v>
       </c>
       <c r="C9" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2FtwistEgg%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/twistEgg?activityId={activityId}&amp;authMode=2</v>
       </c>
     </row>
     <row r="10">
@@ -520,10 +520,10 @@
         <v>语音红包（乐高）</v>
       </c>
       <c r="B10" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fvoice%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/voice?activityId={activityId}&amp;authMode=2</v>
       </c>
       <c r="C10" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fvoice%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/voice?activityId={activityId}&amp;authMode=2</v>
       </c>
     </row>
     <row r="11">
@@ -531,10 +531,10 @@
         <v>整蛊大师（乐高）</v>
       </c>
       <c r="B11" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Ffool%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/fool?activityId={activityId}&amp;authMode=2</v>
       </c>
       <c r="C11" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Ffool%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/fool?activityId={activityId}&amp;authMode=2</v>
       </c>
     </row>
     <row r="12">
@@ -542,10 +542,10 @@
         <v>微助力（乐高）</v>
       </c>
       <c r="B12" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fassistance%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/assistance?activityId={activityId}&amp;authMode=2</v>
       </c>
       <c r="C12" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fassistance%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/assistance?activityId={activityId}&amp;authMode=2</v>
       </c>
     </row>
     <row r="13">
@@ -553,10 +553,10 @@
         <v>拆礼盒（乐高）</v>
       </c>
       <c r="B13" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fbox%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/box?activityId={activityId}&amp;authMode=2</v>
       </c>
       <c r="C13" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fbox%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/box?activityId={activityId}&amp;authMode=2</v>
       </c>
     </row>
     <row r="14">
@@ -564,10 +564,10 @@
         <v>红包也疯狂（乐高）</v>
       </c>
       <c r="B14" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fredpacket%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/redpacket?activityId={activityId}&amp;authMode=2</v>
       </c>
       <c r="C14" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fredpacket%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/redpacket?activityId={activityId}&amp;authMode=2</v>
       </c>
     </row>
     <row r="15">
@@ -575,10 +575,10 @@
         <v>睡神大作战（乐高）</v>
       </c>
       <c r="B15" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fteacher%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/teacher?activityId={activityId}&amp;authMode=2</v>
       </c>
       <c r="C15" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Flego%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fteacher%3FactivityId%3D%7BactivityId%7D%26authMode%3D2</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/lego/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/teacher?activityId={activityId}&amp;authMode=2</v>
       </c>
     </row>
     <row r="16">
@@ -586,10 +586,10 @@
         <v>砍价首页</v>
       </c>
       <c r="B16" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Fbargain%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fh5%2Findex</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/bargain/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/h5/index</v>
       </c>
       <c r="C16" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Fbargain%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fh5%2Findex</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/bargain/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/h5/index</v>
       </c>
     </row>
     <row r="17">
@@ -597,10 +597,10 @@
         <v>砍价详情</v>
       </c>
       <c r="B17" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Fbargain%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fh5%2Fproduct</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/bargain/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/h5/product</v>
       </c>
       <c r="C17" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Fbargain%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fh5%2Fproduct</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/bargain/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/h5/product</v>
       </c>
     </row>
     <row r="18">
@@ -608,10 +608,10 @@
         <v>我的砍价</v>
       </c>
       <c r="B18" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Fbargain%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fh5%2Fmine</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/bargain/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/h5/mine</v>
       </c>
       <c r="C18" t="str">
-        <v>/cms_webview/index?url=https%3A%2F%2F%7BFUSION_DOMAIN%7D%2Fbos%2Fbargain%2F%7BCID%7D%2F%7BVID%7D%2F%7BPRODUCT_INSTANCE_ID%7D%2Fh5%2Fmine</v>
+        <v>/cms_webview/index?url=https://{FUSION_DOMAIN}/bos/bargain/{CID}/{VID}/{PRODUCT_INSTANCE_ID}/h5/mine</v>
       </c>
     </row>
   </sheetData>
